--- a/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 35,83</t>
+          <t>17,6; 37,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 19,13</t>
+          <t>9,16; 18,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,81</t>
+          <t>14,78; 24,12</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,23; 42,64</t>
+          <t>33,86; 42,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,77; 37,01</t>
+          <t>28,46; 36,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 38,9</t>
+          <t>32,06; 38,6</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,12; 43,23</t>
+          <t>32,66; 43,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,03; 45,85</t>
+          <t>39,94; 45,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,17; 43,41</t>
+          <t>37,55; 43,77</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,75; 37,67</t>
+          <t>30,08; 37,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 33,51</t>
+          <t>18,29; 33,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 33,99</t>
+          <t>24,71; 34,29</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,26; 54,33</t>
+          <t>47,19; 53,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,29; 55,57</t>
+          <t>49,55; 55,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,38; 53,88</t>
+          <t>49,23; 53,76</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,34; 42,7</t>
+          <t>38,36; 42,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,27; 41,99</t>
+          <t>35,64; 41,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,89; 41,71</t>
+          <t>37,75; 41,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 37,38</t>
+          <t>17,78; 35,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 18,09</t>
+          <t>9,76; 19,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 24,12</t>
+          <t>14,84; 23,81</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,86; 42,64</t>
+          <t>34,23; 42,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,46; 36,85</t>
+          <t>28,77; 37,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,06; 38,6</t>
+          <t>32,59; 38,9</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,66; 43,44</t>
+          <t>33,12; 43,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,94; 45,53</t>
+          <t>40,03; 45,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,55; 43,77</t>
+          <t>37,17; 43,41</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,08; 37,89</t>
+          <t>29,75; 37,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,29; 33,4</t>
+          <t>19,52; 33,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,71; 34,29</t>
+          <t>23,68; 33,99</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,19; 53,96</t>
+          <t>47,26; 54,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,55; 55,2</t>
+          <t>49,29; 55,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,23; 53,76</t>
+          <t>49,38; 53,88</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,36; 42,86</t>
+          <t>38,34; 42,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,78</t>
+          <t>36,27; 41,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,75; 41,79</t>
+          <t>37,89; 41,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,57; 38,03</t>
+          <t>30,67; 38,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 31,09</t>
+          <t>21,85; 30,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,39; 33,65</t>
+          <t>26,72; 33,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 40,13</t>
+          <t>16,14; 40,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,6; 43,96</t>
+          <t>38,72; 43,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 40,9</t>
+          <t>24,27; 40,7</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,48; 36,05</t>
+          <t>28,64; 36,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 31,55</t>
+          <t>11,72; 31,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 31,89</t>
+          <t>18,37; 31,86</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,11; 52,28</t>
+          <t>45,07; 51,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,29; 63,35</t>
+          <t>49,28; 62,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,51; 56,9</t>
+          <t>48,32; 56,57</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,4; 39,99</t>
+          <t>28,03; 39,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,75; 41,44</t>
+          <t>30,37; 41,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,19; 39,79</t>
+          <t>32,27; 39,85</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas de temperatura en la vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>218387</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>201505</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>419893</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>194918; 244074</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>158452; 224649</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>363537; 458170</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>369103</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>395674</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>764777</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>192582; 480601</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>371230; 421298</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>522197; 875743</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>226272</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>220607</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>446879</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>201786; 255791</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>109417; 295281</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>300898; 521879</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>450752</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>585703</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1036455</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>417682; 480962</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>539567; 689525</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>977003; 1143797</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3553</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1264515</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1403489</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2668004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>969935; 1380426</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1127339; 1534209</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2314614; 2858358</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>